--- a/biology/Zoologie/Hemiargus/Hemiargus.xlsx
+++ b/biology/Zoologie/Hemiargus/Hemiargus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemiargus est un genre américain de lépidoptères (papillons) de la famille des Lycaenidae. 
 </t>
@@ -511,12 +523,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Hemiargus a été décrit par l'entomologiste allemand Jakob Hübner en 1818[1].
-Son espèce type est Hemiargus antibubastus Hübner, 1818 (qui est actuellement considérée comme une sous-espèce d'Hemiargus ceraunus)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Hemiargus a été décrit par l'entomologiste allemand Jakob Hübner en 1818.
+Son espèce type est Hemiargus antibubastus Hübner, 1818 (qui est actuellement considérée comme une sous-espèce d'Hemiargus ceraunus).
 Ce genre est classé dans la famille des Lycaenidae, la sous-famille des Polyommatinae et la tribu des Polyommatini.
-Il est étroitement apparenté à deux autres genres américains : Echinargus et Cyclargus (certaines de leurs espèces ont d'ailleurs été classées dans le genre Hemiargus par le passé)[3]. 
+Il est étroitement apparenté à deux autres genres américains : Echinargus et Cyclargus (certaines de leurs espèces ont d'ailleurs été classées dans le genre Hemiargus par le passé). 
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Liste des espèces et distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Hemiargus compte entre deux et six espèces en fonction des sources ; elles sont toutes originaires des néotropiques ou du Sud du néarctique[2]: 
-Hemiargus hanno (Stoll, [1790]) — Caraïbes, Amérique du Sud.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Hemiargus compte entre deux et six espèces en fonction des sources ; elles sont toutes originaires des néotropiques ou du Sud du néarctique: 
+Hemiargus hanno (Stoll, ) — Caraïbes, Amérique du Sud.
 Hemiargus ceraunus (Fabricius, 1793) — Sud des États-Unis, Mexique, Amérique centrale, Antilles — parfois considéré comme une sous-espèce d'Hemiargus hanno.
 Hemiargus ramon (Dognin, 1887) — Équateur, Nord du Chili, îles Galápagos.
 Hemiargus martha (Dognin, 1887) — Équateur.
